--- a/dataset/2021 서울시 교통량 조사자료.xlsx
+++ b/dataset/2021 서울시 교통량 조사자료.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunj\Traffic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunj\Traffic\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BB7F66-B1DE-42A6-A4D6-049D1BB4CA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CECC79-9C36-4B32-AF85-7167C4B0FB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4973" yWindow="2280" windowWidth="16200" windowHeight="9308" tabRatio="931" firstSheet="2" activeTab="8" xr2:uid="{E0A9A9A9-DADD-4A66-B531-9E6E1D580EF2}"/>
+    <workbookView xWindow="2880" yWindow="2880" windowWidth="16200" windowHeight="9308" tabRatio="931" firstSheet="2" activeTab="8" xr2:uid="{E0A9A9A9-DADD-4A66-B531-9E6E1D580EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="월별 교통량" sheetId="5" r:id="rId1"/>
     <sheet name="요일별 교통량" sheetId="6" r:id="rId2"/>
-    <sheet name="시간대별 주중교통량" sheetId="3" r:id="rId3"/>
-    <sheet name="시간대별 주말교통량" sheetId="4" r:id="rId4"/>
+    <sheet name="주중교통량 시간대별 " sheetId="3" r:id="rId3"/>
+    <sheet name="주말교통량 시간대별 " sheetId="4" r:id="rId4"/>
     <sheet name="도심 교통량" sheetId="7" r:id="rId5"/>
     <sheet name="시계 교통량" sheetId="8" r:id="rId6"/>
     <sheet name="교량 교통량" sheetId="9" r:id="rId7"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="383">
   <si>
     <t>8월</t>
   </si>
@@ -709,9 +709,6 @@
     <t>반포대로(서초역)</t>
   </si>
   <si>
-    <t>4 5</t>
-  </si>
-  <si>
     <t>D-38</t>
   </si>
   <si>
@@ -730,9 +727,6 @@
     <t>헌릉로(세곡동사거리)</t>
   </si>
   <si>
-    <t>5 6</t>
-  </si>
-  <si>
     <t>D-41</t>
   </si>
   <si>
@@ -1057,14 +1051,146 @@
     <t>서부간선도로</t>
   </si>
   <si>
-    <t>2 3</t>
+    <t>C-01</t>
+  </si>
+  <si>
+    <t>행주대교</t>
+  </si>
+  <si>
+    <t>C-03</t>
+  </si>
+  <si>
+    <t>가양대교</t>
+  </si>
+  <si>
+    <t>C-04</t>
+  </si>
+  <si>
+    <t>성산대교</t>
+  </si>
+  <si>
+    <t>C-05</t>
+  </si>
+  <si>
+    <t>양화대교</t>
+  </si>
+  <si>
+    <t>C-06</t>
+  </si>
+  <si>
+    <t>서강대교</t>
+  </si>
+  <si>
+    <t>C-07</t>
+  </si>
+  <si>
+    <t>마포대교</t>
+  </si>
+  <si>
+    <t>C-08</t>
+  </si>
+  <si>
+    <t>원효대교</t>
+  </si>
+  <si>
+    <t>C-09</t>
+  </si>
+  <si>
+    <t>한강대교</t>
+  </si>
+  <si>
+    <t>C-10</t>
+  </si>
+  <si>
+    <t>동작대교</t>
+  </si>
+  <si>
+    <t>C-11</t>
+  </si>
+  <si>
+    <t>반포대교</t>
+  </si>
+  <si>
+    <t>C-12</t>
+  </si>
+  <si>
+    <t>잠수교</t>
+  </si>
+  <si>
+    <t>C-13</t>
+  </si>
+  <si>
+    <t>한남대교</t>
+  </si>
+  <si>
+    <t>C-14</t>
+  </si>
+  <si>
+    <t>동호대교</t>
+  </si>
+  <si>
+    <t>C-15</t>
+  </si>
+  <si>
+    <t>성수대교</t>
+  </si>
+  <si>
+    <t>C-16</t>
+  </si>
+  <si>
+    <t>영동대교</t>
+  </si>
+  <si>
+    <t>C-17</t>
+  </si>
+  <si>
+    <t>청담대교</t>
+  </si>
+  <si>
+    <t>C-18</t>
+  </si>
+  <si>
+    <t>잠실대교</t>
+  </si>
+  <si>
+    <t>C-19</t>
+  </si>
+  <si>
+    <t>올림픽대교</t>
+  </si>
+  <si>
+    <t>C-20</t>
+  </si>
+  <si>
+    <t>천호대교</t>
+  </si>
+  <si>
+    <t>C-21</t>
+  </si>
+  <si>
+    <t>광진교</t>
+  </si>
+  <si>
+    <t>유입(차로수)</t>
+  </si>
+  <si>
+    <t>유출(차로수)</t>
+  </si>
+  <si>
+    <t>차로수_유입</t>
+  </si>
+  <si>
+    <t>차로수_유출</t>
+  </si>
+  <si>
+    <t>F-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +1222,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1120,7 +1271,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1140,13 +1291,32 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1474,24 +1644,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
@@ -2133,24 +2303,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
@@ -2651,7 +2821,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B2" sqref="B2:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -3937,8 +4107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250DC797-B117-479F-9263-01C4DC00BBDD}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -5224,13 +5394,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3067F412-3628-4003-8FAA-D38FD4A35CDD}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L25"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="9" style="9"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
@@ -5244,13 +5414,13 @@
         <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>80</v>
@@ -6194,12 +6364,12 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L38"/>
+      <selection activeCell="C1" sqref="C1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="9" style="9"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
@@ -6213,13 +6383,13 @@
         <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>80</v>
@@ -6242,10 +6412,10 @@
     </row>
     <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>107</v>
@@ -6280,10 +6450,10 @@
     </row>
     <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>155</v>
@@ -6318,10 +6488,10 @@
     </row>
     <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>91</v>
@@ -6356,10 +6526,10 @@
     </row>
     <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>91</v>
@@ -6394,10 +6564,10 @@
     </row>
     <row r="6" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>91</v>
@@ -6432,10 +6602,10 @@
     </row>
     <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>91</v>
@@ -6470,10 +6640,10 @@
     </row>
     <row r="8" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>91</v>
@@ -6508,10 +6678,10 @@
     </row>
     <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>119</v>
@@ -6546,13 +6716,13 @@
     </row>
     <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D10" s="5">
         <v>86792</v>
@@ -6584,10 +6754,10 @@
     </row>
     <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>107</v>
@@ -6622,10 +6792,10 @@
     </row>
     <row r="12" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>119</v>
@@ -6660,13 +6830,13 @@
     </row>
     <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="D13" s="5">
         <v>61392</v>
@@ -6698,10 +6868,10 @@
     </row>
     <row r="14" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>107</v>
@@ -6736,10 +6906,10 @@
     </row>
     <row r="15" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>91</v>
@@ -6774,10 +6944,10 @@
     </row>
     <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>107</v>
@@ -6812,10 +6982,10 @@
     </row>
     <row r="17" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A17" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>205</v>
@@ -6850,10 +7020,10 @@
     </row>
     <row r="18" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A18" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>158</v>
@@ -6888,10 +7058,10 @@
     </row>
     <row r="19" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>146</v>
@@ -6926,10 +7096,10 @@
     </row>
     <row r="20" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>110</v>
@@ -6964,10 +7134,10 @@
     </row>
     <row r="21" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A21" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>88</v>
@@ -7002,10 +7172,10 @@
     </row>
     <row r="22" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A22" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>88</v>
@@ -7040,10 +7210,10 @@
     </row>
     <row r="23" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A23" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>124</v>
@@ -7078,10 +7248,10 @@
     </row>
     <row r="24" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A24" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>88</v>
@@ -7116,10 +7286,10 @@
     </row>
     <row r="25" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A25" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>155</v>
@@ -7154,10 +7324,10 @@
     </row>
     <row r="26" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A26" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>155</v>
@@ -7192,10 +7362,10 @@
     </row>
     <row r="27" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A27" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>88</v>
@@ -7230,10 +7400,10 @@
     </row>
     <row r="28" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A28" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>91</v>
@@ -7268,10 +7438,10 @@
     </row>
     <row r="29" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A29" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>107</v>
@@ -7306,10 +7476,10 @@
     </row>
     <row r="30" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A30" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>91</v>
@@ -7344,10 +7514,10 @@
     </row>
     <row r="31" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A31" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>91</v>
@@ -7382,10 +7552,10 @@
     </row>
     <row r="32" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A32" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>124</v>
@@ -7420,10 +7590,10 @@
     </row>
     <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A33" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>107</v>
@@ -7458,10 +7628,10 @@
     </row>
     <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A34" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>91</v>
@@ -7496,10 +7666,10 @@
     </row>
     <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A35" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>91</v>
@@ -7534,10 +7704,10 @@
     </row>
     <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A36" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>107</v>
@@ -7572,10 +7742,10 @@
     </row>
     <row r="37" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A37" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>119</v>
@@ -7610,10 +7780,10 @@
     </row>
     <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A38" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>91</v>
@@ -7657,32 +7827,32 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L38"/>
+      <selection sqref="A1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="9" style="9"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>80</v>
@@ -7703,12 +7873,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>263</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A2" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>339</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>107</v>
@@ -7741,12 +7911,12 @@
         <v>-5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A3" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>265</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A3" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>155</v>
@@ -7779,12 +7949,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A4" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>267</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A4" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>91</v>
@@ -7817,12 +7987,12 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A5" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>269</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A5" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>91</v>
@@ -7855,12 +8025,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A6" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>271</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A6" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>91</v>
@@ -7893,12 +8063,12 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A7" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>273</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A7" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>349</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>91</v>
@@ -7931,12 +8101,12 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A8" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>275</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A8" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>351</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>91</v>
@@ -7969,12 +8139,12 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A9" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>277</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A9" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>119</v>
@@ -8007,15 +8177,15 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A10" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D10" s="5">
         <v>86792</v>
@@ -8045,12 +8215,12 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A11" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>282</v>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A11" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>107</v>
@@ -8083,12 +8253,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A12" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>284</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A12" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>359</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>119</v>
@@ -8121,15 +8291,15 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A13" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="D13" s="5">
         <v>61392</v>
@@ -8159,12 +8329,12 @@
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A14" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>289</v>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A14" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>363</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>107</v>
@@ -8197,12 +8367,12 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A15" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>291</v>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A15" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>365</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>91</v>
@@ -8235,12 +8405,12 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A16" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>293</v>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A16" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>367</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>107</v>
@@ -8273,12 +8443,12 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A17" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>295</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A17" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>369</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>205</v>
@@ -8311,12 +8481,12 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A18" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>297</v>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A18" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>158</v>
@@ -8350,11 +8520,11 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A19" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>299</v>
+      <c r="A19" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>373</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>146</v>
@@ -8387,12 +8557,12 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A20" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>301</v>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A20" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>375</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>110</v>
@@ -8425,12 +8595,12 @@
         <v>-7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A21" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>303</v>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A21" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>377</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>88</v>
@@ -8463,13 +8633,9 @@
         <v>-0.10299999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A22" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>305</v>
-      </c>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3" t="s">
         <v>88</v>
       </c>
@@ -8503,10 +8669,10 @@
     </row>
     <row r="23" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A23" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>124</v>
@@ -8541,10 +8707,10 @@
     </row>
     <row r="24" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A24" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>88</v>
@@ -8579,10 +8745,10 @@
     </row>
     <row r="25" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A25" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>155</v>
@@ -8617,10 +8783,10 @@
     </row>
     <row r="26" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A26" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>155</v>
@@ -8655,10 +8821,10 @@
     </row>
     <row r="27" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A27" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>88</v>
@@ -8693,10 +8859,10 @@
     </row>
     <row r="28" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A28" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>91</v>
@@ -8731,10 +8897,10 @@
     </row>
     <row r="29" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A29" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>107</v>
@@ -8769,10 +8935,10 @@
     </row>
     <row r="30" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A30" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>91</v>
@@ -8807,10 +8973,10 @@
     </row>
     <row r="31" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A31" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>91</v>
@@ -8845,10 +9011,10 @@
     </row>
     <row r="32" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A32" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>124</v>
@@ -8883,10 +9049,10 @@
     </row>
     <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A33" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>107</v>
@@ -8921,10 +9087,10 @@
     </row>
     <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A34" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>91</v>
@@ -8959,10 +9125,10 @@
     </row>
     <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A35" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>91</v>
@@ -8997,10 +9163,10 @@
     </row>
     <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A36" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>107</v>
@@ -9035,10 +9201,10 @@
     </row>
     <row r="37" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A37" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>119</v>
@@ -9073,10 +9239,10 @@
     </row>
     <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A38" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>91</v>
@@ -9117,1762 +9283,1902 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEDB305-AA2C-4F69-AA2A-B669E96FF5E2}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L46"/>
+      <selection activeCell="C1" sqref="C1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="9" style="9"/>
+    <col min="1" max="2" width="9" style="11"/>
+    <col min="3" max="4" width="9" style="12"/>
+    <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A1" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A2" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="12">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13">
         <v>43895</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="13">
         <v>21584</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="13">
         <v>22311</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="13">
         <v>42541</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="13">
         <v>20750</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="13">
         <v>21791</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="14">
         <v>-3.1E-2</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="14">
         <v>-3.9E-2</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="14">
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A3" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
         <v>42455</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="13">
         <v>21672</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="13">
         <v>20783</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="13">
         <v>41546</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="13">
         <v>21536</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="13">
         <v>20010</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="14">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="14">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="14">
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13">
         <v>63672</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="13">
         <v>31681</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="13">
         <v>31991</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="13">
         <v>61491</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="13">
         <v>30556</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="13">
         <v>30935</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="14">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="14">
         <v>-3.5999999999999997E-2</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="14">
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A5" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4</v>
+      </c>
+      <c r="E5" s="13">
         <v>86945</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="13">
         <v>45522</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="13">
         <v>41423</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="13">
         <v>86338</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="13">
         <v>45354</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="13">
         <v>40984</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="14">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="14">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="14">
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A6" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="12">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13">
         <v>83631</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="13">
         <v>43511</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="13">
         <v>40120</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="13">
         <v>81095</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="13">
         <v>42093</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="13">
         <v>39002</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="14">
         <v>-0.03</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="14">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="14">
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A7" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13">
         <v>66376</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="13">
         <v>34097</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="13">
         <v>32279</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="13">
         <v>65644</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="13">
         <v>34001</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="13">
         <v>31643</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="14">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="14">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="14">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A8" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="12">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13">
         <v>67793</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="13">
         <v>31885</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="13">
         <v>35908</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="13">
         <v>64612</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="13">
         <v>30384</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="13">
         <v>34228</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="14">
         <v>-4.7E-2</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="14">
         <v>-4.7E-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="14">
         <v>-4.7E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A9" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="12">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13">
         <v>69489</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="13">
         <v>37857</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="13">
         <v>31632</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="13">
         <v>67567</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="13">
         <v>36719</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="13">
         <v>30848</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="14">
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="14">
         <v>-0.03</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="14">
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A10" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="12">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13">
         <v>57141</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="13">
         <v>29520</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="13">
         <v>27621</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="13">
         <v>55686</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="13">
         <v>28629</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="13">
         <v>27057</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="14">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="14">
         <v>-0.03</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="14">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A11" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="12">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13">
         <v>67887</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="13">
         <v>33260</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="13">
         <v>34627</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="13">
         <v>67211</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="13">
         <v>33331</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="13">
         <v>33880</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="14">
         <v>-0.01</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="14">
         <v>2E-3</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="14">
         <v>-2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A12" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13">
         <v>44897</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="13">
         <v>22574</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="13">
         <v>22323</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="13">
         <v>43027</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="13">
         <v>21437</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="13">
         <v>21590</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="14">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="14">
         <v>-0.05</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="14">
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A13" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13">
         <v>117986</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="13">
         <v>58243</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="13">
         <v>59743</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="13">
         <v>119920</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="13">
         <v>61427</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="13">
         <v>58493</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="14">
         <v>1.6E-2</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="14">
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A14" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="12">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13">
         <v>38770</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="13">
         <v>21730</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="13">
         <v>17040</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="13">
         <v>37561</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="13">
         <v>21388</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="13">
         <v>16173</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="14">
         <v>-3.1E-2</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="14">
         <v>-1.6E-2</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="14">
         <v>-5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A15" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="12">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13">
         <v>66189</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="13">
         <v>33730</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="13">
         <v>32459</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="13">
         <v>63470</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="13">
         <v>32693</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="13">
         <v>30777</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="14">
         <v>-4.1000000000000002E-2</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="14">
         <v>-3.1E-2</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="14">
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A16" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="12">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
         <v>66820</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="13">
         <v>35319</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="13">
         <v>31501</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="13">
         <v>65581</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="13">
         <v>35158</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="13">
         <v>30423</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="14">
         <v>-1.9E-2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="14">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="14">
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A17" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17" s="12">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12">
+        <v>4</v>
+      </c>
+      <c r="E17" s="13">
         <v>75286</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="13">
         <v>35438</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="13">
         <v>39848</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="13">
         <v>73568</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="13">
         <v>34850</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="13">
         <v>38718</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="14">
         <v>-2.3E-2</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="14">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="14">
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A18" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="12">
+        <v>3</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
         <v>35047</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="13">
         <v>17692</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="13">
         <v>17355</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="13">
         <v>34854</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="13">
         <v>17922</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="13">
         <v>16932</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="14">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="14">
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="67.5" x14ac:dyDescent="0.6">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A19" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19" s="12">
+        <v>5</v>
+      </c>
+      <c r="D19" s="12">
+        <v>4</v>
+      </c>
+      <c r="E19" s="13">
         <v>72757</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="13">
         <v>36084</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="13">
         <v>36673</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="13">
         <v>72080</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="13">
         <v>35701</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="13">
         <v>36379</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="14">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="14">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="14">
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A20" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20" s="12">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12">
+        <v>4</v>
+      </c>
+      <c r="E20" s="13">
         <v>109885</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="13">
         <v>51742</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="13">
         <v>58143</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="13">
         <v>107216</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="13">
         <v>49720</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="13">
         <v>57496</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="14">
         <v>-2.4E-2</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="14">
         <v>-3.9E-2</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="14">
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A21" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21" s="12">
+        <v>2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13">
         <v>38216</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="13">
         <v>20905</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="13">
         <v>17311</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="13">
         <v>37711</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="13">
         <v>20856</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="13">
         <v>16855</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K21" s="14">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="14">
         <v>-2E-3</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="14">
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A22" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="12">
+        <v>5</v>
+      </c>
+      <c r="D22" s="12">
+        <v>4</v>
+      </c>
+      <c r="E22" s="13">
         <v>49224</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="13">
         <v>26265</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="13">
         <v>22959</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="13">
         <v>50328</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="13">
         <v>26701</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="13">
         <v>23627</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="14">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="14">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M22" s="14">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A23" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="12">
+        <v>4</v>
+      </c>
+      <c r="D23" s="12">
+        <v>3</v>
+      </c>
+      <c r="E23" s="13">
         <v>47896</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="13">
         <v>22040</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="13">
         <v>25856</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="13">
         <v>46216</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="13">
         <v>21717</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="13">
         <v>24499</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="14">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="14">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="14">
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A24" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C24" s="12">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12">
+        <v>4</v>
+      </c>
+      <c r="E24" s="13">
         <v>51005</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="13">
         <v>24849</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="13">
         <v>26156</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="13">
         <v>46190</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="13">
         <v>23098</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="13">
         <v>23092</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="14">
         <v>-9.4E-2</v>
       </c>
-      <c r="K24" s="6">
+      <c r="L24" s="14">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L24" s="6">
+      <c r="M24" s="14">
         <v>-0.11700000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A25" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C25" s="12">
+        <v>5</v>
+      </c>
+      <c r="D25" s="12">
+        <v>5</v>
+      </c>
+      <c r="E25" s="13">
         <v>79212</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="13">
         <v>39533</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="13">
         <v>39679</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="13">
         <v>78500</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="13">
         <v>38385</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="13">
         <v>40115</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="14">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="K25" s="6">
+      <c r="L25" s="14">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="L25" s="6">
+      <c r="M25" s="14">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A26" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C26" s="12">
+        <v>3</v>
+      </c>
+      <c r="D26" s="12">
+        <v>3</v>
+      </c>
+      <c r="E26" s="13">
         <v>57983</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="13">
         <v>28154</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="13">
         <v>29829</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="13">
         <v>55163</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="13">
         <v>27078</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="13">
         <v>28085</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="14">
         <v>-4.9000000000000002E-2</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="14">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="L26" s="6">
+      <c r="M26" s="14">
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A27" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C27" s="12">
+        <v>5</v>
+      </c>
+      <c r="D27" s="12">
+        <v>5</v>
+      </c>
+      <c r="E27" s="13">
         <v>72929</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="13">
         <v>36216</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="13">
         <v>36713</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="13">
         <v>70587</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="13">
         <v>35370</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="13">
         <v>35217</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="14">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="14">
         <v>-2.3E-2</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="14">
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A28" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C28" s="12">
+        <v>5</v>
+      </c>
+      <c r="D28" s="12">
+        <v>4</v>
+      </c>
+      <c r="E28" s="13">
         <v>58539</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="13">
         <v>26225</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="13">
         <v>32314</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="13">
         <v>53722</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="13">
         <v>24159</v>
       </c>
-      <c r="I28" s="5">
+      <c r="J28" s="13">
         <v>29563</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="14">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="14">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="14">
         <v>-8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A29" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C29" s="12">
+        <v>6</v>
+      </c>
+      <c r="D29" s="12">
+        <v>7</v>
+      </c>
+      <c r="E29" s="13">
         <v>89962</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="13">
         <v>45950</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="13">
         <v>44012</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="13">
         <v>90915</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="13">
         <v>44946</v>
       </c>
-      <c r="I29" s="5">
+      <c r="J29" s="13">
         <v>45969</v>
       </c>
-      <c r="J29" s="6">
+      <c r="K29" s="14">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="14">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="L29" s="6">
+      <c r="M29" s="14">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A30" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C30" s="12">
+        <v>5</v>
+      </c>
+      <c r="D30" s="12">
+        <v>4</v>
+      </c>
+      <c r="E30" s="13">
         <v>85745</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="13">
         <v>41329</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="13">
         <v>44416</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="13">
         <v>82385</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="13">
         <v>39903</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="13">
         <v>42482</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="14">
         <v>-3.9E-2</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="14">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="L30" s="6">
+      <c r="M30" s="14">
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A31" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C31" s="12">
+        <v>2</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2</v>
+      </c>
+      <c r="E31" s="13">
         <v>69640</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="13">
         <v>32535</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="13">
         <v>37105</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="13">
         <v>67482</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="13">
         <v>32090</v>
       </c>
-      <c r="I31" s="5">
+      <c r="J31" s="13">
         <v>35392</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="14">
         <v>-3.1E-2</v>
       </c>
-      <c r="K31" s="6">
+      <c r="L31" s="14">
         <v>-1.4E-2</v>
       </c>
-      <c r="L31" s="6">
+      <c r="M31" s="14">
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A32" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C32" s="12">
+        <v>4</v>
+      </c>
+      <c r="D32" s="12">
+        <v>4</v>
+      </c>
+      <c r="E32" s="13">
         <v>84243</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="13">
         <v>47434</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="13">
         <v>36809</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="13">
         <v>82634</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="13">
         <v>46149</v>
       </c>
-      <c r="I32" s="5">
+      <c r="J32" s="13">
         <v>36485</v>
       </c>
-      <c r="J32" s="6">
+      <c r="K32" s="14">
         <v>-1.9E-2</v>
       </c>
-      <c r="K32" s="6">
+      <c r="L32" s="14">
         <v>-2.7E-2</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="14">
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A33" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C33" s="12">
+        <v>2</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2</v>
+      </c>
+      <c r="E33" s="13">
         <v>16389</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="13">
         <v>8704</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="13">
         <v>7685</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="13">
         <v>15411</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="13">
         <v>8221</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J33" s="13">
         <v>7190</v>
       </c>
-      <c r="J33" s="6">
+      <c r="K33" s="14">
         <v>-0.06</v>
       </c>
-      <c r="K33" s="6">
+      <c r="L33" s="14">
         <v>-5.5E-2</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="14">
         <v>-6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A34" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C34" s="12">
+        <v>4</v>
+      </c>
+      <c r="D34" s="12">
+        <v>4</v>
+      </c>
+      <c r="E34" s="13">
         <v>96252</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="13">
         <v>49030</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="13">
         <v>47222</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="13">
         <v>90723</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="13">
         <v>46721</v>
       </c>
-      <c r="I34" s="5">
+      <c r="J34" s="13">
         <v>44002</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="14">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="K34" s="6">
+      <c r="L34" s="14">
         <v>-4.7E-2</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="14">
         <v>-6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A35" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C35" s="12">
+        <v>4</v>
+      </c>
+      <c r="D35" s="12">
+        <v>4</v>
+      </c>
+      <c r="E35" s="13">
         <v>88525</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="13">
         <v>43720</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="13">
         <v>44805</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="13">
         <v>82399</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="13">
         <v>40755</v>
       </c>
-      <c r="I35" s="5">
+      <c r="J35" s="13">
         <v>41644</v>
       </c>
-      <c r="J35" s="6">
+      <c r="K35" s="14">
         <v>-6.9000000000000006E-2</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="14">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="L35" s="6">
+      <c r="M35" s="14">
         <v>-7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A36" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C36" s="12">
+        <v>5</v>
+      </c>
+      <c r="D36" s="12">
+        <v>5</v>
+      </c>
+      <c r="E36" s="13">
         <v>55588</v>
       </c>
-      <c r="E36" s="5">
+      <c r="F36" s="13">
         <v>27444</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="13">
         <v>28144</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H36" s="13">
         <v>53898</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="13">
         <v>26113</v>
       </c>
-      <c r="I36" s="5">
+      <c r="J36" s="13">
         <v>27785</v>
       </c>
-      <c r="J36" s="6">
+      <c r="K36" s="14">
         <v>-0.03</v>
       </c>
-      <c r="K36" s="6">
+      <c r="L36" s="14">
         <v>-4.8000000000000001E-2</v>
       </c>
-      <c r="L36" s="6">
+      <c r="M36" s="14">
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A37" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C37" s="12">
+        <v>4</v>
+      </c>
+      <c r="D37" s="12">
+        <v>4</v>
+      </c>
+      <c r="E37" s="13">
         <v>86362</v>
       </c>
-      <c r="E37" s="5">
+      <c r="F37" s="13">
         <v>45185</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="13">
         <v>41177</v>
       </c>
-      <c r="G37" s="5">
+      <c r="H37" s="13">
         <v>83240</v>
       </c>
-      <c r="H37" s="5">
+      <c r="I37" s="13">
         <v>43302</v>
       </c>
-      <c r="I37" s="5">
+      <c r="J37" s="13">
         <v>39938</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="14">
         <v>-3.5999999999999997E-2</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="14">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="14">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A38" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="12">
+        <v>4</v>
+      </c>
+      <c r="D38" s="12">
+        <v>5</v>
+      </c>
+      <c r="E38" s="13">
+        <v>82973</v>
+      </c>
+      <c r="F38" s="13">
+        <v>42513</v>
+      </c>
+      <c r="G38" s="13">
+        <v>40460</v>
+      </c>
+      <c r="H38" s="13">
+        <v>81650</v>
+      </c>
+      <c r="I38" s="13">
+        <v>41489</v>
+      </c>
+      <c r="J38" s="13">
+        <v>40161</v>
+      </c>
+      <c r="K38" s="14">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="L38" s="14">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M38" s="14">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A39" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D38" s="5">
-        <v>82973</v>
-      </c>
-      <c r="E38" s="5">
-        <v>42513</v>
-      </c>
-      <c r="F38" s="5">
-        <v>40460</v>
-      </c>
-      <c r="G38" s="5">
-        <v>81650</v>
-      </c>
-      <c r="H38" s="5">
-        <v>41489</v>
-      </c>
-      <c r="I38" s="5">
-        <v>40161</v>
-      </c>
-      <c r="J38" s="6">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="K38" s="6">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="L38" s="6">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="12">
+        <v>4</v>
+      </c>
+      <c r="D39" s="12">
+        <v>3</v>
+      </c>
+      <c r="E39" s="13">
+        <v>59920</v>
+      </c>
+      <c r="F39" s="13">
+        <v>32599</v>
+      </c>
+      <c r="G39" s="13">
+        <v>27321</v>
+      </c>
+      <c r="H39" s="13">
+        <v>58894</v>
+      </c>
+      <c r="I39" s="13">
+        <v>31881</v>
+      </c>
+      <c r="J39" s="13">
+        <v>27013</v>
+      </c>
+      <c r="K39" s="14">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="L39" s="14">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="M39" s="14">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A40" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="5">
-        <v>59920</v>
-      </c>
-      <c r="E39" s="5">
-        <v>32599</v>
-      </c>
-      <c r="F39" s="5">
-        <v>27321</v>
-      </c>
-      <c r="G39" s="5">
-        <v>58894</v>
-      </c>
-      <c r="H39" s="5">
-        <v>31881</v>
-      </c>
-      <c r="I39" s="5">
-        <v>27013</v>
-      </c>
-      <c r="J39" s="6">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="K39" s="6">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="L39" s="6">
+      <c r="B40" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40" s="12">
+        <v>5</v>
+      </c>
+      <c r="D40" s="12">
+        <v>4</v>
+      </c>
+      <c r="E40" s="13">
+        <v>97696</v>
+      </c>
+      <c r="F40" s="13">
+        <v>52312</v>
+      </c>
+      <c r="G40" s="13">
+        <v>45384</v>
+      </c>
+      <c r="H40" s="13">
+        <v>97512</v>
+      </c>
+      <c r="I40" s="13">
+        <v>52134</v>
+      </c>
+      <c r="J40" s="13">
+        <v>45378</v>
+      </c>
+      <c r="K40" s="14">
+        <v>-2E-3</v>
+      </c>
+      <c r="L40" s="14">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="M40" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A41" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="12">
+        <v>5</v>
+      </c>
+      <c r="D41" s="12">
+        <v>6</v>
+      </c>
+      <c r="E41" s="13">
+        <v>62667</v>
+      </c>
+      <c r="F41" s="13">
+        <v>34739</v>
+      </c>
+      <c r="G41" s="13">
+        <v>27928</v>
+      </c>
+      <c r="H41" s="13">
+        <v>63340</v>
+      </c>
+      <c r="I41" s="13">
+        <v>34658</v>
+      </c>
+      <c r="J41" s="13">
+        <v>28682</v>
+      </c>
+      <c r="K41" s="14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L41" s="14">
+        <v>-2E-3</v>
+      </c>
+      <c r="M41" s="14">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A42" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="12">
+        <v>2</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2</v>
+      </c>
+      <c r="E42" s="13">
+        <v>59623</v>
+      </c>
+      <c r="F42" s="13">
+        <v>26515</v>
+      </c>
+      <c r="G42" s="13">
+        <v>33108</v>
+      </c>
+      <c r="H42" s="13">
+        <v>57855</v>
+      </c>
+      <c r="I42" s="13">
+        <v>25421</v>
+      </c>
+      <c r="J42" s="13">
+        <v>32434</v>
+      </c>
+      <c r="K42" s="14">
+        <v>-0.03</v>
+      </c>
+      <c r="L42" s="14">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="M42" s="14">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A43" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="12">
+        <v>4</v>
+      </c>
+      <c r="D43" s="12">
+        <v>4</v>
+      </c>
+      <c r="E43" s="13">
+        <v>68434</v>
+      </c>
+      <c r="F43" s="13">
+        <v>28024</v>
+      </c>
+      <c r="G43" s="13">
+        <v>40410</v>
+      </c>
+      <c r="H43" s="13">
+        <v>65162</v>
+      </c>
+      <c r="I43" s="13">
+        <v>27067</v>
+      </c>
+      <c r="J43" s="13">
+        <v>38095</v>
+      </c>
+      <c r="K43" s="14">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="L43" s="14">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="M43" s="14">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A44" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="12">
+        <v>5</v>
+      </c>
+      <c r="D44" s="12">
+        <v>4</v>
+      </c>
+      <c r="E44" s="13">
+        <v>69076</v>
+      </c>
+      <c r="F44" s="13">
+        <v>35664</v>
+      </c>
+      <c r="G44" s="13">
+        <v>33412</v>
+      </c>
+      <c r="H44" s="13">
+        <v>64676</v>
+      </c>
+      <c r="I44" s="13">
+        <v>33000</v>
+      </c>
+      <c r="J44" s="13">
+        <v>31676</v>
+      </c>
+      <c r="K44" s="14">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="L44" s="14">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="M44" s="14">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A45" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="12">
+        <v>4</v>
+      </c>
+      <c r="D45" s="12">
+        <v>3</v>
+      </c>
+      <c r="E45" s="13">
+        <v>36845</v>
+      </c>
+      <c r="F45" s="13">
+        <v>19711</v>
+      </c>
+      <c r="G45" s="13">
+        <v>17134</v>
+      </c>
+      <c r="H45" s="13">
+        <v>36939</v>
+      </c>
+      <c r="I45" s="13">
+        <v>19913</v>
+      </c>
+      <c r="J45" s="13">
+        <v>17026</v>
+      </c>
+      <c r="K45" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="M45" s="14">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A46" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="12">
+        <v>5</v>
+      </c>
+      <c r="D46" s="12">
+        <v>5</v>
+      </c>
+      <c r="E46" s="13">
+        <v>75776</v>
+      </c>
+      <c r="F46" s="13">
+        <v>37974</v>
+      </c>
+      <c r="G46" s="13">
+        <v>37802</v>
+      </c>
+      <c r="H46" s="13">
+        <v>74952</v>
+      </c>
+      <c r="I46" s="13">
+        <v>38419</v>
+      </c>
+      <c r="J46" s="13">
+        <v>36533</v>
+      </c>
+      <c r="K46" s="14">
         <v>-1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A40" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="5">
-        <v>97696</v>
-      </c>
-      <c r="E40" s="5">
-        <v>52312</v>
-      </c>
-      <c r="F40" s="5">
-        <v>45384</v>
-      </c>
-      <c r="G40" s="5">
-        <v>97512</v>
-      </c>
-      <c r="H40" s="5">
-        <v>52134</v>
-      </c>
-      <c r="I40" s="5">
-        <v>45378</v>
-      </c>
-      <c r="J40" s="6">
-        <v>-2E-3</v>
-      </c>
-      <c r="K40" s="6">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A41" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D41" s="5">
-        <v>62667</v>
-      </c>
-      <c r="E41" s="5">
-        <v>34739</v>
-      </c>
-      <c r="F41" s="5">
-        <v>27928</v>
-      </c>
-      <c r="G41" s="5">
-        <v>63340</v>
-      </c>
-      <c r="H41" s="5">
-        <v>34658</v>
-      </c>
-      <c r="I41" s="5">
-        <v>28682</v>
-      </c>
-      <c r="J41" s="6">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K41" s="6">
-        <v>-2E-3</v>
-      </c>
-      <c r="L41" s="6">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A42" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="5">
-        <v>59623</v>
-      </c>
-      <c r="E42" s="5">
-        <v>26515</v>
-      </c>
-      <c r="F42" s="5">
-        <v>33108</v>
-      </c>
-      <c r="G42" s="5">
-        <v>57855</v>
-      </c>
-      <c r="H42" s="5">
-        <v>25421</v>
-      </c>
-      <c r="I42" s="5">
-        <v>32434</v>
-      </c>
-      <c r="J42" s="6">
-        <v>-0.03</v>
-      </c>
-      <c r="K42" s="6">
-        <v>-4.1000000000000002E-2</v>
-      </c>
-      <c r="L42" s="6">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A43" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="5">
-        <v>68434</v>
-      </c>
-      <c r="E43" s="5">
-        <v>28024</v>
-      </c>
-      <c r="F43" s="5">
-        <v>40410</v>
-      </c>
-      <c r="G43" s="5">
-        <v>65162</v>
-      </c>
-      <c r="H43" s="5">
-        <v>27067</v>
-      </c>
-      <c r="I43" s="5">
-        <v>38095</v>
-      </c>
-      <c r="J43" s="6">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="K43" s="6">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="L43" s="6">
-        <v>-5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A44" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="5">
-        <v>69076</v>
-      </c>
-      <c r="E44" s="5">
-        <v>35664</v>
-      </c>
-      <c r="F44" s="5">
-        <v>33412</v>
-      </c>
-      <c r="G44" s="5">
-        <v>64676</v>
-      </c>
-      <c r="H44" s="5">
-        <v>33000</v>
-      </c>
-      <c r="I44" s="5">
-        <v>31676</v>
-      </c>
-      <c r="J44" s="6">
-        <v>-6.4000000000000001E-2</v>
-      </c>
-      <c r="K44" s="6">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="L44" s="6">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A45" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="5">
-        <v>36845</v>
-      </c>
-      <c r="E45" s="5">
-        <v>19711</v>
-      </c>
-      <c r="F45" s="5">
-        <v>17134</v>
-      </c>
-      <c r="G45" s="5">
-        <v>36939</v>
-      </c>
-      <c r="H45" s="5">
-        <v>19913</v>
-      </c>
-      <c r="I45" s="5">
-        <v>17026</v>
-      </c>
-      <c r="J45" s="6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="L45" s="6">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A46" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="5">
-        <v>75776</v>
-      </c>
-      <c r="E46" s="5">
-        <v>37974</v>
-      </c>
-      <c r="F46" s="5">
-        <v>37802</v>
-      </c>
-      <c r="G46" s="5">
-        <v>74952</v>
-      </c>
-      <c r="H46" s="5">
-        <v>38419</v>
-      </c>
-      <c r="I46" s="5">
-        <v>36533</v>
-      </c>
-      <c r="J46" s="6">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="K46" s="6">
+      <c r="L46" s="14">
         <v>1.2E-2</v>
       </c>
-      <c r="L46" s="6">
+      <c r="M46" s="14">
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
@@ -10884,395 +11190,462 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78477F8B-8574-4270-A811-A2D5DBBD219F}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:14" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>244332</v>
+      </c>
+      <c r="G2" s="5">
+        <v>136213</v>
+      </c>
+      <c r="H2" s="5">
+        <v>108119</v>
+      </c>
+      <c r="I2" s="5">
+        <v>243077</v>
+      </c>
+      <c r="J2" s="5">
+        <v>135812</v>
+      </c>
+      <c r="K2" s="5">
+        <v>107265</v>
+      </c>
+      <c r="L2" s="6">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="M2" s="6">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="N2" s="6">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A3" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="5">
-        <v>244332</v>
-      </c>
-      <c r="E2" s="5">
-        <v>136213</v>
-      </c>
-      <c r="F2" s="5">
-        <v>108119</v>
-      </c>
-      <c r="G2" s="5">
-        <v>243077</v>
-      </c>
-      <c r="H2" s="5">
-        <v>135812</v>
-      </c>
-      <c r="I2" s="5">
-        <v>107265</v>
-      </c>
-      <c r="J2" s="6">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="K2" s="6">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="L2" s="6">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>230067</v>
+      </c>
+      <c r="G3" s="5">
+        <v>111458</v>
+      </c>
+      <c r="H3" s="5">
+        <v>118609</v>
+      </c>
+      <c r="I3" s="5">
+        <v>225665</v>
+      </c>
+      <c r="J3" s="5">
+        <v>109218</v>
+      </c>
+      <c r="K3" s="5">
+        <v>116447</v>
+      </c>
+      <c r="L3" s="6">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="M3" s="6">
+        <v>-0.02</v>
+      </c>
+      <c r="N3" s="6">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A4" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="5">
-        <v>230067</v>
-      </c>
-      <c r="E3" s="5">
-        <v>111458</v>
-      </c>
-      <c r="F3" s="5">
-        <v>118609</v>
-      </c>
-      <c r="G3" s="5">
-        <v>225665</v>
-      </c>
-      <c r="H3" s="5">
-        <v>109218</v>
-      </c>
-      <c r="I3" s="5">
-        <v>116447</v>
-      </c>
-      <c r="J3" s="6">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>140897</v>
+      </c>
+      <c r="G4" s="5">
+        <v>71523</v>
+      </c>
+      <c r="H4" s="5">
+        <v>69374</v>
+      </c>
+      <c r="I4" s="5">
+        <v>138821</v>
+      </c>
+      <c r="J4" s="5">
+        <v>70399</v>
+      </c>
+      <c r="K4" s="5">
+        <v>68422</v>
+      </c>
+      <c r="L4" s="6">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="M4" s="6">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>-1.4E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>108305</v>
+      </c>
+      <c r="G5" s="5">
+        <v>51838</v>
+      </c>
+      <c r="H5" s="5">
+        <v>56467</v>
+      </c>
+      <c r="I5" s="5">
+        <v>105921</v>
+      </c>
+      <c r="J5" s="5">
+        <v>50462</v>
+      </c>
+      <c r="K5" s="5">
+        <v>55459</v>
+      </c>
+      <c r="L5" s="6">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="N5" s="6">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A6" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>137834</v>
+      </c>
+      <c r="G6" s="5">
+        <v>62335</v>
+      </c>
+      <c r="H6" s="5">
+        <v>75499</v>
+      </c>
+      <c r="I6" s="5">
+        <v>133006</v>
+      </c>
+      <c r="J6" s="5">
+        <v>60811</v>
+      </c>
+      <c r="K6" s="5">
+        <v>72195</v>
+      </c>
+      <c r="L6" s="6">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="M6" s="6">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>194220</v>
+      </c>
+      <c r="G7" s="5">
+        <v>96711</v>
+      </c>
+      <c r="H7" s="5">
+        <v>97509</v>
+      </c>
+      <c r="I7" s="5">
+        <v>192269</v>
+      </c>
+      <c r="J7" s="5">
+        <v>95343</v>
+      </c>
+      <c r="K7" s="5">
+        <v>96926</v>
+      </c>
+      <c r="L7" s="6">
+        <v>-0.01</v>
+      </c>
+      <c r="M7" s="6">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="N7" s="6">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>137139</v>
+      </c>
+      <c r="G8" s="5">
+        <v>68156</v>
+      </c>
+      <c r="H8" s="5">
+        <v>68983</v>
+      </c>
+      <c r="I8" s="5">
+        <v>134216</v>
+      </c>
+      <c r="J8" s="5">
+        <v>66605</v>
+      </c>
+      <c r="K8" s="5">
+        <v>67611</v>
+      </c>
+      <c r="L8" s="6">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="N8" s="6">
         <v>-0.02</v>
       </c>
-      <c r="L3" s="6">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A4" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="5">
-        <v>140897</v>
-      </c>
-      <c r="E4" s="5">
-        <v>71523</v>
-      </c>
-      <c r="F4" s="5">
-        <v>69374</v>
-      </c>
-      <c r="G4" s="5">
-        <v>138821</v>
-      </c>
-      <c r="H4" s="5">
-        <v>70399</v>
-      </c>
-      <c r="I4" s="5">
-        <v>68422</v>
-      </c>
-      <c r="J4" s="6">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="K4" s="6">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="L4" s="6">
-        <v>-1.4E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A5" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="5">
-        <v>108305</v>
-      </c>
-      <c r="E5" s="5">
-        <v>51838</v>
-      </c>
-      <c r="F5" s="5">
-        <v>56467</v>
-      </c>
-      <c r="G5" s="5">
-        <v>105921</v>
-      </c>
-      <c r="H5" s="5">
-        <v>50462</v>
-      </c>
-      <c r="I5" s="5">
-        <v>55459</v>
-      </c>
-      <c r="J5" s="6">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="K5" s="6">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="L5" s="6">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="5">
-        <v>137834</v>
-      </c>
-      <c r="E6" s="5">
-        <v>62335</v>
-      </c>
-      <c r="F6" s="5">
-        <v>75499</v>
-      </c>
-      <c r="G6" s="5">
-        <v>133006</v>
-      </c>
-      <c r="H6" s="5">
-        <v>60811</v>
-      </c>
-      <c r="I6" s="5">
-        <v>72195</v>
-      </c>
-      <c r="J6" s="6">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="K6" s="6">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="L6" s="6">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A7" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="5">
-        <v>194220</v>
-      </c>
-      <c r="E7" s="5">
-        <v>96711</v>
-      </c>
-      <c r="F7" s="5">
-        <v>97509</v>
-      </c>
-      <c r="G7" s="5">
-        <v>192269</v>
-      </c>
-      <c r="H7" s="5">
-        <v>95343</v>
-      </c>
-      <c r="I7" s="5">
-        <v>96926</v>
-      </c>
-      <c r="J7" s="6">
-        <v>-0.01</v>
-      </c>
-      <c r="K7" s="6">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="L7" s="6">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="50.65" x14ac:dyDescent="0.6">
+      <c r="A9" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="5">
-        <v>137139</v>
-      </c>
-      <c r="E8" s="5">
-        <v>68156</v>
-      </c>
-      <c r="F8" s="5">
-        <v>68983</v>
-      </c>
-      <c r="G8" s="5">
-        <v>134216</v>
-      </c>
-      <c r="H8" s="5">
-        <v>66605</v>
-      </c>
-      <c r="I8" s="5">
-        <v>67611</v>
-      </c>
-      <c r="J8" s="6">
-        <v>-2.1000000000000001E-2</v>
-      </c>
-      <c r="K8" s="6">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="L8" s="6">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
-      <c r="A9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>83404</v>
+      </c>
+      <c r="G9" s="5">
+        <v>41615</v>
+      </c>
+      <c r="H9" s="5">
+        <v>41789</v>
+      </c>
+      <c r="I9" s="5">
+        <v>90451</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45846</v>
+      </c>
+      <c r="K9" s="5">
+        <v>44605</v>
+      </c>
+      <c r="L9" s="6">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="N9" s="6">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A10" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="5">
-        <v>83404</v>
-      </c>
-      <c r="E9" s="5">
-        <v>41615</v>
-      </c>
-      <c r="F9" s="5">
-        <v>41789</v>
-      </c>
-      <c r="G9" s="5">
-        <v>90451</v>
-      </c>
-      <c r="H9" s="5">
-        <v>45846</v>
-      </c>
-      <c r="I9" s="5">
-        <v>44605</v>
-      </c>
-      <c r="J9" s="6">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="L9" s="6">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
-      <c r="A10" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>339</v>
+      <c r="B10" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D10" s="5">
+        <v>337</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
         <v>104479</v>
       </c>
-      <c r="E10" s="5">
+      <c r="G10" s="5">
         <v>47885</v>
       </c>
-      <c r="F10" s="5">
+      <c r="H10" s="5">
         <v>56594</v>
       </c>
-      <c r="G10" s="5">
+      <c r="I10" s="5">
         <v>95170</v>
       </c>
-      <c r="H10" s="5">
+      <c r="J10" s="5">
         <v>42920</v>
       </c>
-      <c r="I10" s="5">
+      <c r="K10" s="5">
         <v>52250</v>
       </c>
-      <c r="J10" s="6">
+      <c r="L10" s="6">
         <v>-8.8999999999999996E-2</v>
       </c>
-      <c r="K10" s="6">
+      <c r="M10" s="6">
         <v>-0.104</v>
       </c>
-      <c r="L10" s="6">
+      <c r="N10" s="6">
         <v>-7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="B11" s="9" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
